--- a/250V_Geschw.xlsx
+++ b/250V_Geschw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V503---Millikanversuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E869D1C4-C5F5-4E62-ABC3-03DB22AB6116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04DDACE-D035-4AAE-9DB1-4EFAF846F550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BA983683-8009-4788-AAA2-415E60FF4DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA983683-8009-4788-AAA2-415E60FF4DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -418,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ECBB7A-7E4F-48F9-AC88-9BF73DBFB7CC}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,8 +499,12 @@
         <f>2*J2</f>
         <v>1.081665765278529E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>K2/I2</f>
+        <v>0.23555694596747961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>5.67</v>
       </c>
@@ -516,7 +520,7 @@
         <v>0.27472527472527469</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2.35</v>
       </c>
@@ -532,7 +536,7 @@
         <v>9.881422924901187E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -566,15 +570,19 @@
         <v>1.7750966184728684E-2</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J3:J17" si="2">0.5/D5</f>
+        <f t="shared" ref="J5:J17" si="2">0.5/D5</f>
         <v>4.7420333839150227E-3</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K3:K19" si="3">2*J5</f>
+        <f t="shared" ref="K5:K17" si="3">2*J5</f>
         <v>9.4840667678300454E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f>K5/I5</f>
+        <v>0.53428453804330234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>5.0599999999999996</v>
       </c>
@@ -590,7 +598,7 @@
         <v>0.10822510822510822</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4.57</v>
       </c>
@@ -606,7 +614,7 @@
         <v>0.15673981191222572</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -644,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5.79</v>
       </c>
@@ -660,7 +668,7 @@
         <v>0.11363636363636363</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>4.6900000000000004</v>
       </c>
@@ -676,7 +684,7 @@
         <v>0.12254901960784313</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -717,8 +725,12 @@
         <f t="shared" si="3"/>
         <v>4.5682960255824578E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f>K11/I11</f>
+        <v>1.0065740603791793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8.19</v>
       </c>
@@ -734,7 +746,7 @@
         <v>0.10121457489878542</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>8.5</v>
       </c>
@@ -750,7 +762,7 @@
         <v>0.10141987829614606</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -788,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>5.9</v>
       </c>
@@ -804,7 +816,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>5.43</v>
       </c>
@@ -820,7 +832,7 @@
         <v>9.940357852882703E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -861,8 +873,12 @@
         <f t="shared" si="3"/>
         <v>2.0554984583761562E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f>K17/I17</f>
+        <v>1.2804337150639236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>10.59</v>
       </c>
@@ -878,7 +894,7 @@
         <v>5.9311981020166077E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>9.89</v>
       </c>
